--- a/solutions/exams.xlsx
+++ b/solutions/exams.xlsx
@@ -164,7 +164,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
